--- a/2019/Day4.xlsx
+++ b/2019/Day4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Excel/Excel &amp; Financial Modelling/Advent-of-Code-Excel/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB04C2D-0A21-B645-B096-B5348E20E48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E37FE-127C-C747-AA1E-9DF48B1B39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28520" yWindow="1040" windowWidth="18280" windowHeight="12840" activeTab="1" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33620" windowHeight="21580" activeTab="1" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="3" r:id="rId1"/>
@@ -136,10 +136,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,44 +507,44 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
